--- a/MA_files/Guter_Plan.xlsx
+++ b/MA_files/Guter_Plan.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\Uni_Leipzig\MA\Code\PlatformIO\IMU_Audit\MA_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADAD6A8-FB7B-4147-A9CC-DA3D81B60782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6F926-31CD-4F6C-A3BD-A87114567DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF2F4FEC-9DF6-4D1D-9B0D-5ABDCC0189AA}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{AF2F4FEC-9DF6-4D1D-9B0D-5ABDCC0189AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -803,8 +802,8 @@
   <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
